--- a/test_results_unit_testing.xlsx
+++ b/test_results_unit_testing.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="170">
   <si>
     <t xml:space="preserve">TEST CASE ID</t>
   </si>
@@ -186,10 +186,7 @@
     <t xml:space="preserve">Result should contain an 'Error' key</t>
   </si>
   <si>
-    <t xml:space="preserve">Error' not found in {'Title': 'Title not found'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fail</t>
+    <t xml:space="preserve">as Expected</t>
   </si>
   <si>
     <t xml:space="preserve">TS006</t>
@@ -518,9 +515,6 @@
   </si>
   <si>
     <t xml:space="preserve">ChatMistralAI should be initialized with correct parameters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChatMistralAI' to have been called once. Called 0 times</t>
   </si>
   <si>
     <t xml:space="preserve">TV006</t>
@@ -691,13 +685,13 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K6" activeCellId="0" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="73.87"/>
@@ -916,39 +910,39 @@
         <v>52</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="J7" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>61</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>21</v>
@@ -956,34 +950,34 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="K8" s="0" t="s">
         <v>21</v>
@@ -991,34 +985,34 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>70</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>71</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="J9" s="0" t="s">
         <v>74</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>75</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>21</v>
@@ -1026,34 +1020,34 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>79</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="J10" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>83</v>
       </c>
       <c r="K10" s="0" t="s">
         <v>21</v>
@@ -1061,34 +1055,34 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="J11" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>90</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>21</v>
@@ -1096,34 +1090,34 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="E12" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>94</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="J12" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>98</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>21</v>
@@ -1131,34 +1125,34 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="J13" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>21</v>
@@ -1166,34 +1160,34 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="E14" s="0" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="J14" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>113</v>
       </c>
       <c r="K14" s="0" t="s">
         <v>21</v>
@@ -1201,34 +1195,34 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="E15" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="F15" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="J15" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>123</v>
       </c>
       <c r="K15" s="0" t="s">
         <v>21</v>
@@ -1236,34 +1230,34 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="E16" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="F16" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="J16" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>132</v>
       </c>
       <c r="K16" s="0" t="s">
         <v>21</v>
@@ -1271,34 +1265,34 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="E17" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="F17" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="H17" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="J17" s="0" t="s">
         <v>139</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>140</v>
       </c>
       <c r="K17" s="0" t="s">
         <v>21</v>
@@ -1306,34 +1300,34 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="E18" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="F18" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="H18" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="J18" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="K18" s="0" t="s">
         <v>21</v>
@@ -1341,69 +1335,69 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="E19" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="F19" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="0" t="s">
+      <c r="H19" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="J19" s="0" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="0" t="s">
+      <c r="F20" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="H20" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="I20" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>163</v>
       </c>
       <c r="K20" s="0" t="s">
         <v>21</v>
@@ -1411,34 +1405,34 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="E21" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="F21" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="H21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="I21" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>171</v>
       </c>
       <c r="K21" s="0" t="s">
         <v>21</v>
